--- a/测试单-电子书_txt-word_170325.xlsx
+++ b/测试单-电子书_txt-word_170325.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="988">
   <si>
     <t>编号</t>
   </si>
@@ -6435,6 +6435,30 @@
   </si>
   <si>
     <t>复检已修改txt。新增编号312~332记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要后鼎处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐选择界面的确有此问题，已修改。背景音强度界面没有此问题啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法复现，我这边可以啊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10960,22 +10984,7 @@
     <cellStyle name="常规 9 4" xfId="367"/>
     <cellStyle name="常规 9 4 2" xfId="641"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -12003,7 +12012,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F336" sqref="F336"/>
+      <selection pane="bottomRight" activeCell="P328" sqref="P328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25714,8 +25723,13 @@
       <c r="I328" s="363"/>
       <c r="L328" s="361"/>
       <c r="M328" s="354"/>
-      <c r="N328" s="359"/>
+      <c r="N328" s="359" t="s">
+        <v>982</v>
+      </c>
       <c r="O328" s="359"/>
+      <c r="P328" s="358" t="s">
+        <v>987</v>
+      </c>
       <c r="Q328" s="359"/>
       <c r="R328" s="359"/>
       <c r="S328" s="366"/>
@@ -25748,8 +25762,13 @@
       <c r="I329" s="363"/>
       <c r="L329" s="361"/>
       <c r="M329" s="354"/>
-      <c r="N329" s="359"/>
+      <c r="N329" s="359" t="s">
+        <v>984</v>
+      </c>
       <c r="O329" s="359"/>
+      <c r="P329" s="358" t="s">
+        <v>986</v>
+      </c>
       <c r="Q329" s="359"/>
       <c r="R329" s="359"/>
       <c r="S329" s="366"/>
@@ -25782,8 +25801,13 @@
       <c r="I330" s="363"/>
       <c r="L330" s="361"/>
       <c r="M330" s="354"/>
-      <c r="N330" s="359"/>
+      <c r="N330" s="359" t="s">
+        <v>984</v>
+      </c>
       <c r="O330" s="359"/>
+      <c r="P330" s="358" t="s">
+        <v>985</v>
+      </c>
       <c r="Q330" s="359"/>
       <c r="R330" s="359"/>
       <c r="S330" s="366"/>
@@ -25901,12 +25925,18 @@
       <c r="H334" s="195" t="s">
         <v>980</v>
       </c>
+      <c r="N334" s="358" t="s">
+        <v>982</v>
+      </c>
+      <c r="P334" s="358" t="s">
+        <v>983</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA333">
     <filterColumn colId="4"/>
     <filterColumn colId="9">
-      <filters blank="1">
+      <filters>
         <filter val="待讨论"/>
       </filters>
     </filterColumn>
@@ -25916,7 +25946,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J323:J324 J81:J319 J1:J79 J321 J332:J1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27268,7 +27298,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30539,7 +30569,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J40">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30995,22 +31025,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I11)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_170325.xlsx
+++ b/测试单-电子书_txt-word_170325.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="988">
   <si>
     <t>编号</t>
   </si>
@@ -12009,10 +12009,10 @@
   <dimension ref="A1:S334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="L326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P328" sqref="P328"/>
+      <selection pane="bottomRight" activeCell="O338" sqref="O338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25898,6 +25898,9 @@
       </c>
       <c r="H333" s="195" t="s">
         <v>971</v>
+      </c>
+      <c r="N333" s="359" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="334" spans="1:19" s="358" customFormat="1" ht="27">

--- a/测试单-电子书_txt-word_170325.xlsx
+++ b/测试单-电子书_txt-word_170325.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="989">
   <si>
     <t>编号</t>
   </si>
@@ -6459,6 +6459,10 @@
   </si>
   <si>
     <t>无法复现，我这边可以啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后鼎说他已实现了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12012,7 +12016,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="L326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O338" sqref="O338"/>
+      <selection pane="bottomRight" activeCell="P331" sqref="P331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25553,6 +25557,9 @@
       <c r="I323" s="363" t="s">
         <v>135</v>
       </c>
+      <c r="N323" s="359" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="324" spans="1:19" s="358" customFormat="1" ht="40.5">
       <c r="A324" s="360">
@@ -25611,7 +25618,9 @@
       </c>
       <c r="L325" s="361"/>
       <c r="M325" s="354"/>
-      <c r="N325" s="359"/>
+      <c r="N325" s="374" t="s">
+        <v>970</v>
+      </c>
       <c r="O325" s="359"/>
       <c r="Q325" s="359"/>
       <c r="R325" s="359"/>
@@ -25650,7 +25659,9 @@
       </c>
       <c r="L326" s="361"/>
       <c r="M326" s="354"/>
-      <c r="N326" s="359"/>
+      <c r="N326" s="374" t="s">
+        <v>970</v>
+      </c>
       <c r="O326" s="359"/>
       <c r="Q326" s="359"/>
       <c r="R326" s="359"/>
@@ -25842,8 +25853,13 @@
       </c>
       <c r="L331" s="361"/>
       <c r="M331" s="354"/>
-      <c r="N331" s="359"/>
+      <c r="N331" s="359" t="s">
+        <v>866</v>
+      </c>
       <c r="O331" s="359"/>
+      <c r="P331" s="358" t="s">
+        <v>988</v>
+      </c>
       <c r="Q331" s="359"/>
       <c r="R331" s="359"/>
       <c r="S331" s="366"/>
@@ -25872,6 +25888,9 @@
       </c>
       <c r="H332" s="195" t="s">
         <v>968</v>
+      </c>
+      <c r="N332" s="359" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="333" spans="1:19" s="358" customFormat="1" ht="27">

--- a/测试单-电子书_txt-word_170325.xlsx
+++ b/测试单-电子书_txt-word_170325.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="991">
   <si>
     <t>编号</t>
   </si>
@@ -6463,6 +6463,14 @@
   </si>
   <si>
     <t>后鼎说他已实现了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12013,10 +12021,10 @@
   <dimension ref="A1:S334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="L326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="L323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P331" sqref="P331"/>
+      <selection pane="bottomRight" activeCell="P325" sqref="P325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25109,6 +25117,9 @@
       <c r="H312" s="302" t="s">
         <v>963</v>
       </c>
+      <c r="N312" s="358" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="313" spans="1:19" ht="121.5" hidden="1">
       <c r="A313" s="360">
@@ -25586,6 +25597,9 @@
       <c r="H324" s="195" t="s">
         <v>972</v>
       </c>
+      <c r="N324" s="358" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="325" spans="1:19" s="358" customFormat="1" ht="54">
       <c r="A325" s="360">
@@ -25622,6 +25636,9 @@
         <v>970</v>
       </c>
       <c r="O325" s="359"/>
+      <c r="P325" s="358" t="s">
+        <v>990</v>
+      </c>
       <c r="Q325" s="359"/>
       <c r="R325" s="359"/>
       <c r="S325" s="366"/>
@@ -25663,6 +25680,9 @@
         <v>970</v>
       </c>
       <c r="O326" s="359"/>
+      <c r="P326" s="358" t="s">
+        <v>990</v>
+      </c>
       <c r="Q326" s="359"/>
       <c r="R326" s="359"/>
       <c r="S326" s="366"/>
